--- a/dragon-fujimi/checklist.xlsx
+++ b/dragon-fujimi/checklist.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/dragon-magazine-fujimi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/dragon-fujimi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA6B6C4A-367F-1E41-8D49-69E41C0E4BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFFCBD3-7F82-E340-AB58-F56700702643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C226D48F-CB52-C34A-92A8-6B2410D18064}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="136">
   <si>
     <t>year</t>
   </si>
@@ -405,13 +405,49 @@
   </si>
   <si>
     <t>Fujimi Shobo</t>
+  </si>
+  <si>
+    <t>1998/1</t>
+  </si>
+  <si>
+    <t>1998/2</t>
+  </si>
+  <si>
+    <t>1998/3</t>
+  </si>
+  <si>
+    <t>1998/4</t>
+  </si>
+  <si>
+    <t>1998/5</t>
+  </si>
+  <si>
+    <t>1998/6</t>
+  </si>
+  <si>
+    <t>1998/7</t>
+  </si>
+  <si>
+    <t>1998/8</t>
+  </si>
+  <si>
+    <t>1998/9</t>
+  </si>
+  <si>
+    <t>1998/10</t>
+  </si>
+  <si>
+    <t>1998/11</t>
+  </si>
+  <si>
+    <t>1998/12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -423,6 +459,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -765,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F6FDB-542B-E449-8D73-3FC3A2F50EC5}">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D119"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119:D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1841,7 +1883,7 @@
         <v>1993</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B119" si="8">CONCATENATE(LEFT(E67, 4), "/", RIGHT(LEFT(E67, 6), 1))</f>
+        <f t="shared" ref="B67:B116" si="8">CONCATENATE(LEFT(E67, 4), "/", RIGHT(LEFT(E67, 6), 1))</f>
         <v>1993/8</v>
       </c>
       <c r="D67" t="s">
@@ -2683,7 +2725,200 @@
         <v>122</v>
       </c>
     </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="str">
+        <f>LEFT(B120, 4)</f>
+        <v>1998</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" t="s">
+        <v>123</v>
+      </c>
+      <c r="E120" t="str">
+        <f>_xlfn.CONCAT(LEFT(B120, 4), "0", RIGHT(B120, 1), ".jpg")</f>
+        <v>199801.jpg</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="str">
+        <f t="shared" ref="A121:A131" si="14">LEFT(B121, 4)</f>
+        <v>1998</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="D121" t="s">
+        <v>123</v>
+      </c>
+      <c r="E121" t="str">
+        <f>_xlfn.CONCAT(LEFT(B121, 4), "0", RIGHT(B121, 1), ".jpg")</f>
+        <v>199802.jpg</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="str">
+        <f t="shared" si="14"/>
+        <v>1998</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+      <c r="D122" t="s">
+        <v>123</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" ref="E122:E131" si="15">_xlfn.CONCAT(LEFT(B122, 4), "0", RIGHT(B122, 1), ".jpg")</f>
+        <v>199803.jpg</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="str">
+        <f t="shared" si="14"/>
+        <v>1998</v>
+      </c>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+      <c r="D123" t="s">
+        <v>123</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="15"/>
+        <v>199804.jpg</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="str">
+        <f t="shared" si="14"/>
+        <v>1998</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
+      <c r="D124" t="s">
+        <v>123</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="15"/>
+        <v>199805.jpg</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="str">
+        <f t="shared" si="14"/>
+        <v>1998</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="D125" t="s">
+        <v>123</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="15"/>
+        <v>199806.jpg</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="str">
+        <f t="shared" si="14"/>
+        <v>1998</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="D126" t="s">
+        <v>123</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="15"/>
+        <v>199807.jpg</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="str">
+        <f t="shared" si="14"/>
+        <v>1998</v>
+      </c>
+      <c r="B127" t="s">
+        <v>131</v>
+      </c>
+      <c r="D127" t="s">
+        <v>123</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="15"/>
+        <v>199808.jpg</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="str">
+        <f t="shared" si="14"/>
+        <v>1998</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
+      <c r="D128" t="s">
+        <v>123</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="15"/>
+        <v>199809.jpg</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="str">
+        <f t="shared" si="14"/>
+        <v>1998</v>
+      </c>
+      <c r="B129" t="s">
+        <v>133</v>
+      </c>
+      <c r="D129" t="s">
+        <v>123</v>
+      </c>
+      <c r="E129" t="str">
+        <f>_xlfn.CONCAT(LEFT(B129, 4), "0", RIGHT(B129, 2), ".jpg")</f>
+        <v>1998010.jpg</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="str">
+        <f t="shared" si="14"/>
+        <v>1998</v>
+      </c>
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
+      <c r="D130" t="s">
+        <v>123</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" ref="E130:E131" si="16">_xlfn.CONCAT(LEFT(B130, 4), "0", RIGHT(B130, 2), ".jpg")</f>
+        <v>1998011.jpg</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="str">
+        <f t="shared" si="14"/>
+        <v>1998</v>
+      </c>
+      <c r="B131" t="s">
+        <v>135</v>
+      </c>
+      <c r="D131" t="s">
+        <v>123</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="16"/>
+        <v>1998012.jpg</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dragon-fujimi/checklist.xlsx
+++ b/dragon-fujimi/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/dragon-fujimi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFFCBD3-7F82-E340-AB58-F56700702643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61567529-513E-484B-A358-4EF93BEBC316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C226D48F-CB52-C34A-92A8-6B2410D18064}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="162">
   <si>
     <t>year</t>
   </si>
@@ -441,6 +441,84 @@
   </si>
   <si>
     <t>1998/12</t>
+  </si>
+  <si>
+    <t>199901.jpg</t>
+  </si>
+  <si>
+    <t>199902.jpg</t>
+  </si>
+  <si>
+    <t>199903.jpg</t>
+  </si>
+  <si>
+    <t>199904.jpg</t>
+  </si>
+  <si>
+    <t>199905.jpg</t>
+  </si>
+  <si>
+    <t>199906.jpg</t>
+  </si>
+  <si>
+    <t>199907.jpg</t>
+  </si>
+  <si>
+    <t>199908.jpg</t>
+  </si>
+  <si>
+    <t>199909.jpg</t>
+  </si>
+  <si>
+    <t>199910.jpg</t>
+  </si>
+  <si>
+    <t>199911.jpg</t>
+  </si>
+  <si>
+    <t>199912.jpg</t>
+  </si>
+  <si>
+    <t>1999/1</t>
+  </si>
+  <si>
+    <t>1999/2</t>
+  </si>
+  <si>
+    <t>1999/3</t>
+  </si>
+  <si>
+    <t>1999/4</t>
+  </si>
+  <si>
+    <t>1999/5</t>
+  </si>
+  <si>
+    <t>1999/6</t>
+  </si>
+  <si>
+    <t>1999/7</t>
+  </si>
+  <si>
+    <t>1999/8</t>
+  </si>
+  <si>
+    <t>1999/9</t>
+  </si>
+  <si>
+    <t>1999/10</t>
+  </si>
+  <si>
+    <t>1999/11</t>
+  </si>
+  <si>
+    <t>1999/12</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>periodical</t>
   </si>
 </sst>
 </file>
@@ -807,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F6FDB-542B-E449-8D73-3FC3A2F50EC5}">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119:D131"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,7 +898,7 @@
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,8 +914,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>LEFT(E2, 4)</f>
         <v>1988</v>
@@ -852,8 +933,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">LEFT(E3, 4)</f>
         <v>1988</v>
@@ -868,8 +952,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -884,8 +971,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -900,8 +990,11 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -916,8 +1009,11 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -932,8 +1028,11 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -948,8 +1047,11 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -964,8 +1066,11 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -980,8 +1085,11 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -996,8 +1104,11 @@
       <c r="E11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -1012,8 +1123,11 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -1028,8 +1142,11 @@
       <c r="E13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -1044,8 +1161,11 @@
       <c r="E14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -1060,8 +1180,11 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -1076,8 +1199,11 @@
       <c r="E16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -1092,8 +1218,11 @@
       <c r="E17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -1108,8 +1237,11 @@
       <c r="E18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -1124,8 +1256,11 @@
       <c r="E19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -1140,8 +1275,11 @@
       <c r="E20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -1156,8 +1294,11 @@
       <c r="E21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -1172,8 +1313,11 @@
       <c r="E22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -1188,8 +1332,11 @@
       <c r="E23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1204,8 +1351,11 @@
       <c r="E24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1220,8 +1370,11 @@
       <c r="E25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1236,8 +1389,11 @@
       <c r="E26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1252,8 +1408,11 @@
       <c r="E27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1268,8 +1427,11 @@
       <c r="E28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1284,8 +1446,11 @@
       <c r="E29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1300,8 +1465,11 @@
       <c r="E30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1316,8 +1484,11 @@
       <c r="E31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1332,8 +1503,11 @@
       <c r="E32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1348,8 +1522,11 @@
       <c r="E33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1364,8 +1541,11 @@
       <c r="E34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1380,8 +1560,11 @@
       <c r="E35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1396,8 +1579,11 @@
       <c r="E36" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1412,8 +1598,11 @@
       <c r="E37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1428,8 +1617,11 @@
       <c r="E38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1444,8 +1636,11 @@
       <c r="E39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1460,8 +1655,11 @@
       <c r="E40" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1476,8 +1674,11 @@
       <c r="E41" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1492,8 +1693,11 @@
       <c r="E42" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1508,8 +1712,11 @@
       <c r="E43" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1524,8 +1731,11 @@
       <c r="E44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1540,8 +1750,11 @@
       <c r="E45" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1556,8 +1769,11 @@
       <c r="E46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1572,8 +1788,11 @@
       <c r="E47" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1588,8 +1807,11 @@
       <c r="E48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1604,8 +1826,11 @@
       <c r="E49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1620,8 +1845,11 @@
       <c r="E50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1636,8 +1864,11 @@
       <c r="E51" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1652,8 +1883,11 @@
       <c r="E52" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1668,8 +1902,11 @@
       <c r="E53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1684,8 +1921,11 @@
       <c r="E54" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1700,8 +1940,11 @@
       <c r="E55" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1716,8 +1959,11 @@
       <c r="E56" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1732,8 +1978,11 @@
       <c r="E57" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1748,8 +1997,11 @@
       <c r="E58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -1764,8 +2016,11 @@
       <c r="E59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1780,8 +2035,11 @@
       <c r="E60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1796,8 +2054,11 @@
       <c r="E61" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1812,8 +2073,11 @@
       <c r="E62" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1828,8 +2092,11 @@
       <c r="E63" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1844,8 +2111,11 @@
       <c r="E64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1860,8 +2130,11 @@
       <c r="E65" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1876,8 +2149,11 @@
       <c r="E66" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A119" si="7">LEFT(E67, 4)</f>
         <v>1993</v>
@@ -1892,8 +2168,11 @@
       <c r="E67" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="7"/>
         <v>1993</v>
@@ -1908,8 +2187,11 @@
       <c r="E68" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="7"/>
         <v>1993</v>
@@ -1924,8 +2206,11 @@
       <c r="E69" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="7"/>
         <v>1993</v>
@@ -1940,8 +2225,11 @@
       <c r="E70" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="7"/>
         <v>1993</v>
@@ -1956,8 +2244,11 @@
       <c r="E71" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="7"/>
         <v>1994</v>
@@ -1972,8 +2263,11 @@
       <c r="E72" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="7"/>
         <v>1994</v>
@@ -1988,8 +2282,11 @@
       <c r="E73" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="7"/>
         <v>1994</v>
@@ -2004,8 +2301,11 @@
       <c r="E74" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="7"/>
         <v>1994</v>
@@ -2020,8 +2320,11 @@
       <c r="E75" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="7"/>
         <v>1994</v>
@@ -2036,8 +2339,11 @@
       <c r="E76" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="7"/>
         <v>1994</v>
@@ -2052,8 +2358,11 @@
       <c r="E77" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="7"/>
         <v>1994</v>
@@ -2068,8 +2377,11 @@
       <c r="E78" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="7"/>
         <v>1994</v>
@@ -2084,8 +2396,11 @@
       <c r="E79" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="7"/>
         <v>1994</v>
@@ -2100,8 +2415,11 @@
       <c r="E80" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="7"/>
         <v>1994</v>
@@ -2116,8 +2434,11 @@
       <c r="E81" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f t="shared" si="7"/>
         <v>1994</v>
@@ -2132,8 +2453,11 @@
       <c r="E82" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f t="shared" si="7"/>
         <v>1994</v>
@@ -2148,8 +2472,11 @@
       <c r="E83" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f t="shared" si="7"/>
         <v>1995</v>
@@ -2164,8 +2491,11 @@
       <c r="E84" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f t="shared" si="7"/>
         <v>1995</v>
@@ -2180,8 +2510,11 @@
       <c r="E85" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f t="shared" si="7"/>
         <v>1995</v>
@@ -2196,8 +2529,11 @@
       <c r="E86" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f t="shared" si="7"/>
         <v>1995</v>
@@ -2212,8 +2548,11 @@
       <c r="E87" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f t="shared" si="7"/>
         <v>1995</v>
@@ -2228,8 +2567,11 @@
       <c r="E88" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f t="shared" si="7"/>
         <v>1995</v>
@@ -2244,8 +2586,11 @@
       <c r="E89" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f t="shared" si="7"/>
         <v>1995</v>
@@ -2260,8 +2605,11 @@
       <c r="E90" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f t="shared" si="7"/>
         <v>1995</v>
@@ -2276,8 +2624,11 @@
       <c r="E91" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f t="shared" si="7"/>
         <v>1995</v>
@@ -2292,8 +2643,11 @@
       <c r="E92" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f t="shared" si="7"/>
         <v>1995</v>
@@ -2308,8 +2662,11 @@
       <c r="E93" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f t="shared" si="7"/>
         <v>1995</v>
@@ -2324,8 +2681,11 @@
       <c r="E94" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f t="shared" si="7"/>
         <v>1995</v>
@@ -2340,8 +2700,11 @@
       <c r="E95" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <f t="shared" si="7"/>
         <v>1996</v>
@@ -2356,8 +2719,11 @@
       <c r="E96" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f t="shared" si="7"/>
         <v>1996</v>
@@ -2372,8 +2738,11 @@
       <c r="E97" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <f t="shared" si="7"/>
         <v>1996</v>
@@ -2388,8 +2757,11 @@
       <c r="E98" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <f t="shared" si="7"/>
         <v>1996</v>
@@ -2404,8 +2776,11 @@
       <c r="E99" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f t="shared" si="7"/>
         <v>1996</v>
@@ -2420,8 +2795,11 @@
       <c r="E100" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f t="shared" si="7"/>
         <v>1996</v>
@@ -2436,8 +2814,11 @@
       <c r="E101" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <f t="shared" si="7"/>
         <v>1996</v>
@@ -2452,8 +2833,11 @@
       <c r="E102" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <f t="shared" si="7"/>
         <v>1996</v>
@@ -2468,8 +2852,11 @@
       <c r="E103" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
         <f t="shared" si="7"/>
         <v>1996</v>
@@ -2484,8 +2871,11 @@
       <c r="E104" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
         <f t="shared" si="7"/>
         <v>1996</v>
@@ -2500,8 +2890,11 @@
       <c r="E105" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f t="shared" si="7"/>
         <v>1996</v>
@@ -2516,8 +2909,11 @@
       <c r="E106" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <f t="shared" si="7"/>
         <v>1996</v>
@@ -2532,8 +2928,11 @@
       <c r="E107" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <f t="shared" si="7"/>
         <v>1997</v>
@@ -2548,8 +2947,11 @@
       <c r="E108" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <f t="shared" si="7"/>
         <v>1997</v>
@@ -2564,8 +2966,11 @@
       <c r="E109" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
         <f t="shared" si="7"/>
         <v>1997</v>
@@ -2580,8 +2985,11 @@
       <c r="E110" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
         <f t="shared" si="7"/>
         <v>1997</v>
@@ -2596,8 +3004,11 @@
       <c r="E111" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
         <f t="shared" si="7"/>
         <v>1997</v>
@@ -2612,8 +3023,11 @@
       <c r="E112" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
         <f t="shared" si="7"/>
         <v>1997</v>
@@ -2628,8 +3042,11 @@
       <c r="E113" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
         <f t="shared" si="7"/>
         <v>1997</v>
@@ -2644,8 +3061,11 @@
       <c r="E114" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <f t="shared" si="7"/>
         <v>1997</v>
@@ -2660,8 +3080,11 @@
       <c r="E115" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
         <f t="shared" si="7"/>
         <v>1997</v>
@@ -2676,8 +3099,11 @@
       <c r="E116" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
         <f t="shared" si="7"/>
         <v>1997</v>
@@ -2692,8 +3118,11 @@
       <c r="E117" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
         <f t="shared" si="7"/>
         <v>1997</v>
@@ -2708,8 +3137,11 @@
       <c r="E118" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
         <f t="shared" si="7"/>
         <v>1997</v>
@@ -2724,8 +3156,11 @@
       <c r="E119" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
         <f>LEFT(B120, 4)</f>
         <v>1998</v>
@@ -2740,8 +3175,11 @@
         <f>_xlfn.CONCAT(LEFT(B120, 4), "0", RIGHT(B120, 1), ".jpg")</f>
         <v>199801.jpg</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
         <f t="shared" ref="A121:A131" si="14">LEFT(B121, 4)</f>
         <v>1998</v>
@@ -2756,8 +3194,11 @@
         <f>_xlfn.CONCAT(LEFT(B121, 4), "0", RIGHT(B121, 1), ".jpg")</f>
         <v>199802.jpg</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
         <f t="shared" si="14"/>
         <v>1998</v>
@@ -2769,11 +3210,14 @@
         <v>123</v>
       </c>
       <c r="E122" t="str">
-        <f t="shared" ref="E122:E131" si="15">_xlfn.CONCAT(LEFT(B122, 4), "0", RIGHT(B122, 1), ".jpg")</f>
+        <f t="shared" ref="E122:E128" si="15">_xlfn.CONCAT(LEFT(B122, 4), "0", RIGHT(B122, 1), ".jpg")</f>
         <v>199803.jpg</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
         <f t="shared" si="14"/>
         <v>1998</v>
@@ -2788,8 +3232,11 @@
         <f t="shared" si="15"/>
         <v>199804.jpg</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
         <f t="shared" si="14"/>
         <v>1998</v>
@@ -2804,8 +3251,11 @@
         <f t="shared" si="15"/>
         <v>199805.jpg</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
         <f t="shared" si="14"/>
         <v>1998</v>
@@ -2820,8 +3270,11 @@
         <f t="shared" si="15"/>
         <v>199806.jpg</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
         <f t="shared" si="14"/>
         <v>1998</v>
@@ -2836,8 +3289,11 @@
         <f t="shared" si="15"/>
         <v>199807.jpg</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
         <f t="shared" si="14"/>
         <v>1998</v>
@@ -2852,8 +3308,11 @@
         <f t="shared" si="15"/>
         <v>199808.jpg</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
         <f t="shared" si="14"/>
         <v>1998</v>
@@ -2868,8 +3327,11 @@
         <f t="shared" si="15"/>
         <v>199809.jpg</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
         <f t="shared" si="14"/>
         <v>1998</v>
@@ -2884,8 +3346,11 @@
         <f>_xlfn.CONCAT(LEFT(B129, 4), "0", RIGHT(B129, 2), ".jpg")</f>
         <v>1998010.jpg</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
         <f t="shared" si="14"/>
         <v>1998</v>
@@ -2900,8 +3365,11 @@
         <f t="shared" ref="E130:E131" si="16">_xlfn.CONCAT(LEFT(B130, 4), "0", RIGHT(B130, 2), ".jpg")</f>
         <v>1998011.jpg</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
         <f t="shared" si="14"/>
         <v>1998</v>
@@ -2915,6 +3383,213 @@
       <c r="E131" t="str">
         <f t="shared" si="16"/>
         <v>1998012.jpg</v>
+      </c>
+      <c r="F131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1999</v>
+      </c>
+      <c r="B132" t="s">
+        <v>148</v>
+      </c>
+      <c r="D132" t="s">
+        <v>123</v>
+      </c>
+      <c r="E132" t="s">
+        <v>136</v>
+      </c>
+      <c r="F132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1999</v>
+      </c>
+      <c r="B133" t="s">
+        <v>149</v>
+      </c>
+      <c r="D133" t="s">
+        <v>123</v>
+      </c>
+      <c r="E133" t="s">
+        <v>137</v>
+      </c>
+      <c r="F133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1999</v>
+      </c>
+      <c r="B134" t="s">
+        <v>150</v>
+      </c>
+      <c r="D134" t="s">
+        <v>123</v>
+      </c>
+      <c r="E134" t="s">
+        <v>138</v>
+      </c>
+      <c r="F134" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1999</v>
+      </c>
+      <c r="B135" t="s">
+        <v>151</v>
+      </c>
+      <c r="D135" t="s">
+        <v>123</v>
+      </c>
+      <c r="E135" t="s">
+        <v>139</v>
+      </c>
+      <c r="F135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1999</v>
+      </c>
+      <c r="B136" t="s">
+        <v>152</v>
+      </c>
+      <c r="D136" t="s">
+        <v>123</v>
+      </c>
+      <c r="E136" t="s">
+        <v>140</v>
+      </c>
+      <c r="F136" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1999</v>
+      </c>
+      <c r="B137" t="s">
+        <v>153</v>
+      </c>
+      <c r="D137" t="s">
+        <v>123</v>
+      </c>
+      <c r="E137" t="s">
+        <v>141</v>
+      </c>
+      <c r="F137" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1999</v>
+      </c>
+      <c r="B138" t="s">
+        <v>154</v>
+      </c>
+      <c r="D138" t="s">
+        <v>123</v>
+      </c>
+      <c r="E138" t="s">
+        <v>142</v>
+      </c>
+      <c r="F138" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1999</v>
+      </c>
+      <c r="B139" t="s">
+        <v>155</v>
+      </c>
+      <c r="D139" t="s">
+        <v>123</v>
+      </c>
+      <c r="E139" t="s">
+        <v>143</v>
+      </c>
+      <c r="F139" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1999</v>
+      </c>
+      <c r="B140" t="s">
+        <v>156</v>
+      </c>
+      <c r="D140" t="s">
+        <v>123</v>
+      </c>
+      <c r="E140" t="s">
+        <v>144</v>
+      </c>
+      <c r="F140" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1999</v>
+      </c>
+      <c r="B141" t="s">
+        <v>157</v>
+      </c>
+      <c r="D141" t="s">
+        <v>123</v>
+      </c>
+      <c r="E141" t="s">
+        <v>145</v>
+      </c>
+      <c r="F141" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1999</v>
+      </c>
+      <c r="B142" t="s">
+        <v>158</v>
+      </c>
+      <c r="D142" t="s">
+        <v>123</v>
+      </c>
+      <c r="E142" t="s">
+        <v>146</v>
+      </c>
+      <c r="F142" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1999</v>
+      </c>
+      <c r="B143" t="s">
+        <v>159</v>
+      </c>
+      <c r="D143" t="s">
+        <v>123</v>
+      </c>
+      <c r="E143" t="s">
+        <v>147</v>
+      </c>
+      <c r="F143" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/dragon-fujimi/checklist.xlsx
+++ b/dragon-fujimi/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/dragon-fujimi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61567529-513E-484B-A358-4EF93BEBC316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B50D3B4E-2E6E-0643-A66E-F8485DE09154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C226D48F-CB52-C34A-92A8-6B2410D18064}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="186">
   <si>
     <t>year</t>
   </si>
@@ -519,6 +519,78 @@
   </si>
   <si>
     <t>periodical</t>
+  </si>
+  <si>
+    <t>200001.jpg</t>
+  </si>
+  <si>
+    <t>200002.jpg</t>
+  </si>
+  <si>
+    <t>200003.jpg</t>
+  </si>
+  <si>
+    <t>200004.jpg</t>
+  </si>
+  <si>
+    <t>200005.jpg</t>
+  </si>
+  <si>
+    <t>200006.jpg</t>
+  </si>
+  <si>
+    <t>200007.jpg</t>
+  </si>
+  <si>
+    <t>200008.jpg</t>
+  </si>
+  <si>
+    <t>200009.jpg</t>
+  </si>
+  <si>
+    <t>200010.jpg</t>
+  </si>
+  <si>
+    <t>200011.jpg</t>
+  </si>
+  <si>
+    <t>200012.jpg</t>
+  </si>
+  <si>
+    <t>2000/1</t>
+  </si>
+  <si>
+    <t>2000/2</t>
+  </si>
+  <si>
+    <t>2000/3</t>
+  </si>
+  <si>
+    <t>2000/4</t>
+  </si>
+  <si>
+    <t>2000/5</t>
+  </si>
+  <si>
+    <t>2000/6</t>
+  </si>
+  <si>
+    <t>2000/7</t>
+  </si>
+  <si>
+    <t>2000/8</t>
+  </si>
+  <si>
+    <t>2000/9</t>
+  </si>
+  <si>
+    <t>2000/10</t>
+  </si>
+  <si>
+    <t>2000/11</t>
+  </si>
+  <si>
+    <t>2000/12</t>
   </si>
 </sst>
 </file>
@@ -885,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F6FDB-542B-E449-8D73-3FC3A2F50EC5}">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F143"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144:B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3592,6 +3664,210 @@
         <v>161</v>
       </c>
     </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>2000</v>
+      </c>
+      <c r="B144" t="s">
+        <v>174</v>
+      </c>
+      <c r="D144" t="s">
+        <v>123</v>
+      </c>
+      <c r="E144" t="s">
+        <v>162</v>
+      </c>
+      <c r="F144" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>2000</v>
+      </c>
+      <c r="B145" t="s">
+        <v>175</v>
+      </c>
+      <c r="D145" t="s">
+        <v>123</v>
+      </c>
+      <c r="E145" t="s">
+        <v>163</v>
+      </c>
+      <c r="F145" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>2000</v>
+      </c>
+      <c r="B146" t="s">
+        <v>176</v>
+      </c>
+      <c r="D146" t="s">
+        <v>123</v>
+      </c>
+      <c r="E146" t="s">
+        <v>164</v>
+      </c>
+      <c r="F146" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>2000</v>
+      </c>
+      <c r="B147" t="s">
+        <v>177</v>
+      </c>
+      <c r="D147" t="s">
+        <v>123</v>
+      </c>
+      <c r="E147" t="s">
+        <v>165</v>
+      </c>
+      <c r="F147" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>2000</v>
+      </c>
+      <c r="B148" t="s">
+        <v>178</v>
+      </c>
+      <c r="D148" t="s">
+        <v>123</v>
+      </c>
+      <c r="E148" t="s">
+        <v>166</v>
+      </c>
+      <c r="F148" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>2000</v>
+      </c>
+      <c r="B149" t="s">
+        <v>179</v>
+      </c>
+      <c r="D149" t="s">
+        <v>123</v>
+      </c>
+      <c r="E149" t="s">
+        <v>167</v>
+      </c>
+      <c r="F149" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>2000</v>
+      </c>
+      <c r="B150" t="s">
+        <v>180</v>
+      </c>
+      <c r="D150" t="s">
+        <v>123</v>
+      </c>
+      <c r="E150" t="s">
+        <v>168</v>
+      </c>
+      <c r="F150" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>2000</v>
+      </c>
+      <c r="B151" t="s">
+        <v>181</v>
+      </c>
+      <c r="D151" t="s">
+        <v>123</v>
+      </c>
+      <c r="E151" t="s">
+        <v>169</v>
+      </c>
+      <c r="F151" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>2000</v>
+      </c>
+      <c r="B152" t="s">
+        <v>182</v>
+      </c>
+      <c r="D152" t="s">
+        <v>123</v>
+      </c>
+      <c r="E152" t="s">
+        <v>170</v>
+      </c>
+      <c r="F152" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>2000</v>
+      </c>
+      <c r="B153" t="s">
+        <v>183</v>
+      </c>
+      <c r="D153" t="s">
+        <v>123</v>
+      </c>
+      <c r="E153" t="s">
+        <v>171</v>
+      </c>
+      <c r="F153" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>2000</v>
+      </c>
+      <c r="B154" t="s">
+        <v>184</v>
+      </c>
+      <c r="D154" t="s">
+        <v>123</v>
+      </c>
+      <c r="E154" t="s">
+        <v>172</v>
+      </c>
+      <c r="F154" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>2000</v>
+      </c>
+      <c r="B155" t="s">
+        <v>185</v>
+      </c>
+      <c r="D155" t="s">
+        <v>123</v>
+      </c>
+      <c r="E155" t="s">
+        <v>173</v>
+      </c>
+      <c r="F155" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dragon-fujimi/checklist.xlsx
+++ b/dragon-fujimi/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/dragon-fujimi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B50D3B4E-2E6E-0643-A66E-F8485DE09154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C451B8-27B4-7C4B-8EC2-E47AF2355865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C226D48F-CB52-C34A-92A8-6B2410D18064}"/>
   </bookViews>
@@ -959,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F6FDB-542B-E449-8D73-3FC3A2F50EC5}">
   <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144:B155"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3415,8 +3415,8 @@
         <v>123</v>
       </c>
       <c r="E129" t="str">
-        <f>_xlfn.CONCAT(LEFT(B129, 4), "0", RIGHT(B129, 2), ".jpg")</f>
-        <v>1998010.jpg</v>
+        <f>_xlfn.CONCAT(LEFT(B129, 4), RIGHT(B129, 2), ".jpg")</f>
+        <v>199810.jpg</v>
       </c>
       <c r="F129" t="s">
         <v>161</v>
@@ -3434,8 +3434,8 @@
         <v>123</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" ref="E130:E131" si="16">_xlfn.CONCAT(LEFT(B130, 4), "0", RIGHT(B130, 2), ".jpg")</f>
-        <v>1998011.jpg</v>
+        <f>_xlfn.CONCAT(LEFT(B130, 4), RIGHT(B130, 2), ".jpg")</f>
+        <v>199811.jpg</v>
       </c>
       <c r="F130" t="s">
         <v>161</v>
@@ -3453,8 +3453,8 @@
         <v>123</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" si="16"/>
-        <v>1998012.jpg</v>
+        <f>_xlfn.CONCAT(LEFT(B131, 4), RIGHT(B131, 2), ".jpg")</f>
+        <v>199812.jpg</v>
       </c>
       <c r="F131" t="s">
         <v>161</v>
